--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4005.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4005.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.455929811198244</v>
+        <v>3.804914474487305</v>
       </c>
       <c r="B1">
-        <v>2.560005101757508</v>
+        <v>4.424021244049072</v>
       </c>
       <c r="C1">
-        <v>3.26618015886461</v>
+        <v>6.621881008148193</v>
       </c>
       <c r="D1">
-        <v>3.723809110138508</v>
+        <v>7.690051555633545</v>
       </c>
       <c r="E1">
-        <v>1.91951796146005</v>
+        <v>6.094647407531738</v>
       </c>
     </row>
   </sheetData>
